--- a/top/tests/files/ADP-Bulk-Load.xlsx
+++ b/top/tests/files/ADP-Bulk-Load.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="25760" windowWidth="20480" windowHeight="15620"/>
+    <workbookView xWindow="540" yWindow="27840" windowWidth="20480" windowHeight="25160"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2537,6 +2537,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2555,7 +2560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2591,11 +2596,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2613,6 +2621,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2630,6 +2639,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2964,9 +2974,9 @@
   </sheetPr>
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3085,6 +3095,12 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
+      <c r="M2" s="1">
+        <v>-37.822864000000003</v>
+      </c>
+      <c r="N2" s="1">
+        <v>145.045278</v>
+      </c>
       <c r="O2" t="s">
         <v>12</v>
       </c>
